--- a/untranslated/downloads/data-excel/5.6.1.1.xlsx
+++ b/untranslated/downloads/data-excel/5.6.1.1.xlsx
@@ -19,12 +19,6 @@
     <t>Кыргызская Республика</t>
   </si>
   <si>
-    <t>город</t>
-  </si>
-  <si>
-    <t>село</t>
-  </si>
-  <si>
     <t>Кыргыз Республикасы</t>
   </si>
   <si>
@@ -112,21 +106,6 @@
     <t>Osh city</t>
   </si>
   <si>
-    <t>urban</t>
-  </si>
-  <si>
-    <t>rural</t>
-  </si>
-  <si>
-    <t>шаар</t>
-  </si>
-  <si>
-    <t>айыл</t>
-  </si>
-  <si>
-    <t>5.6.1.1. Доля замужних женщин и сексуально активных не замужних женщин в возрасте 15-49 лет, которые были осведомлены о соврменном методе контрацепции</t>
-  </si>
-  <si>
     <t>Көрсөткүчтөрдүн аталыштары</t>
   </si>
   <si>
@@ -158,6 +137,27 @@
   </si>
   <si>
     <t>According to Multiple Indicator Cluster Survey, 2018.</t>
+  </si>
+  <si>
+    <t>5.6.1.1 Доля замужних женщин и сексуально активных не замужних женщин в возрасте 15-49 лет, которые были осведомлены о соврменном методе контрацепции</t>
+  </si>
+  <si>
+    <t>Шаар жерлери</t>
+  </si>
+  <si>
+    <t>Городские поселения</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Айыл аймагы</t>
+  </si>
+  <si>
+    <t>Сельская местность</t>
+  </si>
+  <si>
+    <t>Village</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -688,24 +688,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="60" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -713,13 +713,13 @@
     </row>
     <row r="4" spans="1:4" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7">
         <v>2018</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="5" spans="1:4" ht="13.5" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="14">
         <v>99.7</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="6" spans="1:4" ht="13.5" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D6" s="15">
         <v>99.8</v>
@@ -755,13 +755,13 @@
     </row>
     <row r="7" spans="1:4" ht="13.5" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D7" s="15">
         <v>99.6</v>
@@ -769,13 +769,13 @@
     </row>
     <row r="8" spans="1:4" ht="13.5" customHeight="1">
       <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>7</v>
       </c>
       <c r="D8" s="15">
         <v>99.7</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="9" spans="1:4" ht="13.5" customHeight="1">
       <c r="A9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>10</v>
       </c>
       <c r="D9" s="15">
         <v>99.4</v>
@@ -797,13 +797,13 @@
     </row>
     <row r="10" spans="1:4" ht="13.5" customHeight="1">
       <c r="A10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>13</v>
       </c>
       <c r="D10" s="15">
         <v>100</v>
@@ -811,13 +811,13 @@
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1">
       <c r="A11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="D11" s="15">
         <v>99.7</v>
@@ -825,13 +825,13 @@
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1">
       <c r="A12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="D12" s="15">
         <v>99.8</v>
@@ -839,13 +839,13 @@
     </row>
     <row r="13" spans="1:4" ht="13.5" customHeight="1">
       <c r="A13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="D13" s="15">
         <v>100</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="14" spans="1:4" ht="13.5" customHeight="1">
       <c r="A14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="D14" s="15">
         <v>99.5</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
       <c r="A15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="D15" s="15">
         <v>99.9</v>
@@ -881,13 +881,13 @@
     </row>
     <row r="16" spans="1:4" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="D16" s="22">
         <v>99.5</v>
@@ -895,13 +895,13 @@
     </row>
     <row r="17" spans="1:3" ht="24">
       <c r="A17" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/5.6.1.1.xlsx
+++ b/untranslated/downloads/data-excel/5.6.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -130,15 +130,6 @@
     <t>(в процентах)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж.</t>
-  </si>
-  <si>
-    <t>По данным кластерного обследования по многим показателям, 2018г.</t>
-  </si>
-  <si>
-    <t>According to Multiple Indicator Cluster Survey, 2018.</t>
-  </si>
-  <si>
     <t>5.6.1.1 Доля замужних женщин и сексуально активных не замужних женщин в возрасте 15-49 лет, которые были осведомлены о соврменном методе контрацепции</t>
   </si>
   <si>
@@ -158,6 +149,33 @@
   </si>
   <si>
     <t>Village</t>
+  </si>
+  <si>
+    <t>Жерлер</t>
+  </si>
+  <si>
+    <t>Местность</t>
+  </si>
+  <si>
+    <t>Urbanization</t>
+  </si>
+  <si>
+    <t>Аймактар боюнча</t>
+  </si>
+  <si>
+    <t>По территории</t>
+  </si>
+  <si>
+    <t>By territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2014-ж., 2018-ж., 2023-ж.</t>
+  </si>
+  <si>
+    <t>По данным кластерного обследования по многим показателям, 2014г., 2018г., 2023г.</t>
+  </si>
+  <si>
+    <t>According to Multiple Indicator Cluster Survey, 2014, 2018, 2023.</t>
   </si>
 </sst>
 </file>
@@ -167,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +264,28 @@
     </font>
     <font>
       <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -297,7 +337,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -364,6 +404,15 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -673,11 +722,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -686,18 +733,18 @@
     <col min="5" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1">
+    <row r="1" spans="1:6" ht="57.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
+    <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -708,10 +755,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -722,10 +769,16 @@
         <v>32</v>
       </c>
       <c r="D4" s="7">
+        <v>2014</v>
+      </c>
+      <c r="E4" s="7">
         <v>2018</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1">
+      <c r="F4" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -736,172 +789,272 @@
         <v>2</v>
       </c>
       <c r="D5" s="14">
+        <v>99.6</v>
+      </c>
+      <c r="E5" s="14">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="F5" s="14">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="15">
+        <v>99.8</v>
+      </c>
+      <c r="E7" s="15">
+        <v>99.8</v>
+      </c>
+      <c r="F7" s="15">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D8" s="15">
+        <v>99.5</v>
+      </c>
+      <c r="E8" s="15">
+        <v>99.6</v>
+      </c>
+      <c r="F8" s="15">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="15">
+        <v>99.6</v>
+      </c>
+      <c r="E10" s="15">
+        <v>99.7</v>
+      </c>
+      <c r="F10" s="15">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="15">
+        <v>100</v>
+      </c>
+      <c r="E11" s="15">
+        <v>99.4</v>
+      </c>
+      <c r="F11" s="15">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="15">
+        <v>99.4</v>
+      </c>
+      <c r="E12" s="15">
+        <v>100</v>
+      </c>
+      <c r="F12" s="15">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="15">
         <v>99.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="15">
-        <v>99.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="E13" s="15">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="F13" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="E14" s="15">
+        <v>99.8</v>
+      </c>
+      <c r="F14" s="15">
         <v>99.4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="15">
+    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="15">
+        <v>98.7</v>
+      </c>
+      <c r="E15" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="15">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="15">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="F15" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A14" s="16" t="s">
+    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="A16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D16" s="15">
+        <v>99.1</v>
+      </c>
+      <c r="E16" s="15">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="F16" s="15">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="A17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D17" s="15">
+        <v>100</v>
+      </c>
+      <c r="E17" s="15">
         <v>99.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A16" s="20" t="s">
+      <c r="F17" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A18" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D18" s="22">
+        <v>98.5</v>
+      </c>
+      <c r="E18" s="22">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="24">
-      <c r="A17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>40</v>
+      <c r="F18" s="22">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="22.5">
+      <c r="A19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
